--- a/sn8_0302/holiday.xlsx
+++ b/sn8_0302/holiday.xlsx
@@ -1,101 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FDX\Desktop\UiPath 실습 시나리오\07.휴장일조사\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D644472-3BE0-4614-9E70-A0D32B2C1FA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1080" windowWidth="20790" windowHeight="13335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1080" windowWidth="20790" windowHeight="13335" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="가공전" sheetId="2" r:id="rId1"/>
-    <sheet name="가공후" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="가공전" sheetId="2" r:id="rId2"/>
+    <sheet name="가공후" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">가공후!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">가공후!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="31">
-  <si>
-    <t>2020</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="159">
   <si>
     <t>New Year's Day</t>
   </si>
   <si>
-    <t>January 1, 2020</t>
-  </si>
-  <si>
-    <t>Closed (passed)</t>
-  </si>
-  <si>
     <t>Birthday of Martin Luther King, Jr</t>
   </si>
   <si>
-    <t>January 20, 2020</t>
-  </si>
-  <si>
     <t>Washington's Birthday</t>
   </si>
   <si>
-    <t>February 17, 2020</t>
-  </si>
-  <si>
     <t>Good Friday</t>
   </si>
   <si>
-    <t>April 10, 2020</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>Memorial Day</t>
   </si>
   <si>
-    <t>May 25, 2020</t>
-  </si>
-  <si>
     <t>Independence Day</t>
   </si>
   <si>
-    <t>July 3, 2020 †</t>
-  </si>
-  <si>
     <t>Labor Day</t>
   </si>
   <si>
-    <t>September 7, 2020</t>
-  </si>
-  <si>
     <t>Thanksgiving Day</t>
   </si>
   <si>
-    <t>November 26, 2020</t>
-  </si>
-  <si>
-    <t>November 27, 2020 †</t>
-  </si>
-  <si>
-    <t>Open, 9:30 AM - 1:00 PM ‡</t>
-  </si>
-  <si>
     <t>Christmas</t>
-  </si>
-  <si>
-    <t>December 24, 2020 †</t>
-  </si>
-  <si>
-    <t>December 25, 2020</t>
   </si>
   <si>
     <r>
@@ -148,11 +98,469 @@
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>New Year's Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, January 1, 2021 (past)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   2 months ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthday of Martin Luther King, Jr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday, January 18, 2021 (past)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   1 month ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington's Birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday, February 15, 2021 (past)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   2 weeks ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, April 2, 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   1 month from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memorial Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday, May 31, 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   2 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Independence Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday, July 5, 2021 †</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   4 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labor Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday, September 6, 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   6 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanksgiving Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thursday, November 25, 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   8 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, November 26, 2021 †</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open, 9:30am - 1:00pm ‡   8 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Christmas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, December 24, 2021 †</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed   9 months from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friday, January 1, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Closed   2 months ago</t>
+  </si>
+  <si>
+    <t>Monday, January 18, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Closed   1 month ago</t>
+  </si>
+  <si>
+    <t>Monday, February 15, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Closed   2 weeks ago</t>
+  </si>
+  <si>
+    <t>Friday, April 2, 2021</t>
+  </si>
+  <si>
+    <t>Closed   1 month from now</t>
+  </si>
+  <si>
+    <t>Monday, May 31, 2021</t>
+  </si>
+  <si>
+    <t>Closed   2 months from now</t>
+  </si>
+  <si>
+    <t>Monday, July 5, 2021 †</t>
+  </si>
+  <si>
+    <t>Closed   4 months from now</t>
+  </si>
+  <si>
+    <t>Monday, September 6, 2021</t>
+  </si>
+  <si>
+    <t>Closed   6 months from now</t>
+  </si>
+  <si>
+    <t>Thursday, November 25, 2021</t>
+  </si>
+  <si>
+    <t>Closed   8 months from now</t>
+  </si>
+  <si>
+    <t>Market Holiday</t>
+  </si>
+  <si>
+    <t>Friday, November 26, 2021</t>
+  </si>
+  <si>
+    <t>Open, 9:30am - 1:00pm ‡   8 months from now</t>
+  </si>
+  <si>
+    <t>Friday, December 24, 2021 †</t>
+  </si>
+  <si>
+    <t>Closed   9 months from now</t>
+  </si>
+  <si>
+    <t>Friday, November 26, 2021 †</t>
+  </si>
+  <si>
+    <t>Chinese New Year</t>
+  </si>
+  <si>
+    <t>Thursday, February 11, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Friday, February 12, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Tuesday, February 16, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Closed   1 week ago</t>
+  </si>
+  <si>
+    <t>Wednesday, February 17, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Qingming Festival</t>
+  </si>
+  <si>
+    <t>Monday, April 5, 2021</t>
+  </si>
+  <si>
+    <t>Monday, May 3, 2021</t>
+  </si>
+  <si>
+    <t>Tuesday, May 4, 2021</t>
+  </si>
+  <si>
+    <t>Wednesday, May 5, 2021</t>
+  </si>
+  <si>
+    <t>Dragon Boat Festival</t>
+  </si>
+  <si>
+    <t>Monday, June 14, 2021</t>
+  </si>
+  <si>
+    <t>Closed   3 months from now</t>
+  </si>
+  <si>
+    <t>Mid-Autumn Festival</t>
+  </si>
+  <si>
+    <t>Tuesday, September 21, 2021</t>
+  </si>
+  <si>
+    <t>National Day</t>
+  </si>
+  <si>
+    <t>Friday, October 1, 2021</t>
+  </si>
+  <si>
+    <t>Closed   7 months from now</t>
+  </si>
+  <si>
+    <t>Monday, October 4, 2021</t>
+  </si>
+  <si>
+    <t>Tuesday, October 5, 2021</t>
+  </si>
+  <si>
+    <t>Wednesday, October 6, 2021</t>
+  </si>
+  <si>
+    <t>Thursday, February 11, 2021 † (past)</t>
+  </si>
+  <si>
+    <t>Open, 9:30am - 12:00pm ‡   2 weeks ago</t>
+  </si>
+  <si>
+    <t>Monday, February 15, 2021 † (past)</t>
+  </si>
+  <si>
+    <t>Monday, April 5, 2021 †</t>
+  </si>
+  <si>
+    <t>Easter</t>
+  </si>
+  <si>
+    <t>Tuesday, April 6, 2021 †</t>
+  </si>
+  <si>
+    <t>Wednesday, May 19, 2021</t>
+  </si>
+  <si>
+    <t>Special Administrative Region Establishment Day</t>
+  </si>
+  <si>
+    <t>Thursday, July 1, 2021</t>
+  </si>
+  <si>
+    <t>Wednesday, September 22, 2021 †</t>
+  </si>
+  <si>
+    <t>Thursday, October 14, 2021</t>
+  </si>
+  <si>
+    <t>Open, 9:30am - 12:00pm ‡   9 months from now</t>
+  </si>
+  <si>
+    <t>Monday, December 27, 2021 †</t>
+  </si>
+  <si>
+    <t>Friday, December 31, 2021 †</t>
+  </si>
+  <si>
+    <t>Friday, April 2, 2021 †</t>
+  </si>
+  <si>
+    <t>Friday, December 24, 2021</t>
+  </si>
+  <si>
+    <t>Open, 9:00am - 2:05pm ‡   9 months from now</t>
+  </si>
+  <si>
+    <t>Friday, December 31, 2021</t>
+  </si>
+  <si>
+    <t>Spring Festival</t>
+  </si>
+  <si>
+    <t>Monday, September 20, 2021</t>
+  </si>
+  <si>
+    <t>Thursday, October 7, 2021</t>
+  </si>
+  <si>
+    <t>Bank Holiday</t>
+  </si>
+  <si>
+    <t>Monday, August 30, 2021</t>
+  </si>
+  <si>
+    <t>Closed   5 months from now</t>
+  </si>
+  <si>
+    <t>Open, 8:00am - 12:30pm ‡   9 months from now</t>
+  </si>
+  <si>
+    <t>Tuesday, December 28, 2021 †</t>
+  </si>
+  <si>
+    <t>Family Day</t>
+  </si>
+  <si>
+    <t>Victoria Day</t>
+  </si>
+  <si>
+    <t>Monday, May 24, 2021</t>
+  </si>
+  <si>
+    <t>Canada Day</t>
+  </si>
+  <si>
+    <t>Civic Day</t>
+  </si>
+  <si>
+    <t>Monday, August 2, 2021</t>
+  </si>
+  <si>
+    <t>Monday, October 11, 2021</t>
+  </si>
+  <si>
+    <t>Open, 9:30am - 1:00pm ‡   9 months from now</t>
+  </si>
+  <si>
+    <t>Republic Day</t>
+  </si>
+  <si>
+    <t>Tuesday, January 26, 2021 (past)</t>
+  </si>
+  <si>
+    <t>Maha Shivratri Day</t>
+  </si>
+  <si>
+    <t>Thursday, March 11, 2021</t>
+  </si>
+  <si>
+    <t>Closed   1 week from now</t>
+  </si>
+  <si>
+    <t>Holi</t>
+  </si>
+  <si>
+    <t>Monday, March 29, 2021</t>
+  </si>
+  <si>
+    <t>Closed   3 weeks from now</t>
+  </si>
+  <si>
+    <t>Dr. Baba Saheb Ambedkar Jayanti</t>
+  </si>
+  <si>
+    <t>Wednesday, April 14, 2021</t>
+  </si>
+  <si>
+    <t>Rama Navami</t>
+  </si>
+  <si>
+    <t>Wednesday, April 21, 2021</t>
+  </si>
+  <si>
+    <t>Eid al-Fitr</t>
+  </si>
+  <si>
+    <t>Thursday, May 13, 2021</t>
+  </si>
+  <si>
+    <t>Eid al-Adha</t>
+  </si>
+  <si>
+    <t>Wednesday, July 21, 2021</t>
+  </si>
+  <si>
+    <t>Islamic New Year</t>
+  </si>
+  <si>
+    <t>Thursday, August 19, 2021</t>
+  </si>
+  <si>
+    <t>Ganesh Chaturthi</t>
+  </si>
+  <si>
+    <t>Friday, September 10, 2021</t>
+  </si>
+  <si>
+    <t>Dussehra</t>
+  </si>
+  <si>
+    <t>Friday, October 15, 2021</t>
+  </si>
+  <si>
+    <t>Diwali</t>
+  </si>
+  <si>
+    <t>Friday, November 5, 2021</t>
+  </si>
+  <si>
+    <t>Guru Nanak Jayanti</t>
+  </si>
+  <si>
+    <t>Friday, November 19, 2021</t>
+  </si>
+  <si>
+    <t>Friday, May 14, 2021</t>
+  </si>
+  <si>
+    <t>Saturday, May 15, 2021</t>
+  </si>
+  <si>
+    <t>Sunday, May 16, 2021</t>
+  </si>
+  <si>
+    <t>Monday, July 19, 2021</t>
+  </si>
+  <si>
+    <t>Tuesday, July 20, 2021</t>
+  </si>
+  <si>
+    <t>Thursday, July 22, 2021</t>
+  </si>
+  <si>
+    <t>Thursday, September 23, 2021</t>
+  </si>
+  <si>
+    <t>Pentecost</t>
+  </si>
+  <si>
+    <t>Ashura</t>
+  </si>
+  <si>
+    <t>Thursday, November 4, 2021</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,39 +608,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -529,11 +919,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,934 +1065,1517 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>26</v>
+      <c r="B58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1487,8 +2585,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD95468-7BBB-4CF8-9919-3E1788042508}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1506,21 +2604,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>43831</v>
@@ -1528,10 +2626,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>43831</v>
@@ -1539,10 +2637,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>43831</v>
@@ -1550,10 +2648,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>43831</v>
@@ -1561,10 +2659,10 @@
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>43850</v>
@@ -1572,10 +2670,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>43850</v>
@@ -1583,10 +2681,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <v>43850</v>
@@ -1594,10 +2692,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>43850</v>
@@ -1605,10 +2703,10 @@
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
         <v>43878</v>
@@ -1616,10 +2714,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
         <v>43878</v>
@@ -1627,10 +2725,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
         <v>43878</v>
@@ -1638,10 +2736,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
         <v>43878</v>
@@ -1649,10 +2747,10 @@
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>43931</v>
@@ -1660,10 +2758,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <v>43931</v>
@@ -1671,10 +2769,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>43931</v>
@@ -1682,10 +2780,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>43931</v>
@@ -1693,10 +2791,10 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
         <v>43976</v>
@@ -1704,10 +2802,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
         <v>43976</v>
@@ -1715,10 +2813,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>43976</v>
@@ -1726,10 +2824,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <v>43976</v>
@@ -1737,10 +2835,10 @@
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
         <v>44015</v>
@@ -1748,10 +2846,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
         <v>44015</v>
@@ -1759,10 +2857,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
         <v>44015</v>
@@ -1770,10 +2868,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
         <v>44015</v>
@@ -1781,10 +2879,10 @@
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C26" s="3">
         <v>44081</v>
@@ -1792,10 +2890,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
         <v>44081</v>
@@ -1803,10 +2901,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
         <v>44081</v>
@@ -1814,10 +2912,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
         <v>44142</v>
@@ -1825,10 +2923,10 @@
     </row>
     <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
         <v>44161</v>
@@ -1836,10 +2934,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3">
         <v>44161</v>
@@ -1847,10 +2945,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3">
         <v>44161</v>
@@ -1858,10 +2956,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3">
         <v>44161</v>
@@ -1869,10 +2967,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C34" s="3">
         <v>44189</v>
@@ -1880,10 +2978,10 @@
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C35" s="3">
         <v>44190</v>
@@ -1891,10 +2989,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>44190</v>
@@ -1902,10 +3000,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C37" s="3">
         <v>44190</v>
